--- a/SQL/SQL評量_蔣澍儀801.xlsx
+++ b/SQL/SQL評量_蔣澍儀801.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Java班\git_upload\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39735CAE-8C3C-4A36-9580-8BB1D9B969C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01ED1C00-52FF-4279-8A6F-65E2297E9377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
+    <workbookView xWindow="12165" yWindow="150" windowWidth="16635" windowHeight="12600" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="149">
   <si>
     <r>
       <rPr>
@@ -1961,11 +1961,52 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>村里辦公室</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>村里表</t>
+    <t>F01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F03</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F04</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F05</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F06</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F07</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F08</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F09</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1985,8 +2026,213 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve"> (PK)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>轄管分局代碼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (PK)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2NF&amp;3NF</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2(10)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2(20)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P03</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P04</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大樓</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P02</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P03</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分局表 branch</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>轄管分局代碼 branch_id(PK)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>轄管分局branch_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分局地址branch_add</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分局電話branch_tel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>設施表 facility</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>設施編號</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t>(PK)</t>
     </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>facility_id</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>設施地址facility_add</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>容人數量facility_people</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下樓層數facility_foor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>類別</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(FK)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>facility_category</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>村里別代號</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (FK)v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>illage_id</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2009,101 +2255,47 @@
       </rPr>
       <t>(FK)</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>設施表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>F01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>F02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>F03</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>F04</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>F05</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>F06</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>F07</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>F08</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>F09</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>F10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>F11</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>F12</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>分局表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>設施</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>branch_id</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Microsoft JhengHei"/>
         <family val="2"/>
       </rPr>
-      <t>地址</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>表</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>轄管分局代碼(PK)</t>
+      <t>設施編號</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(PK)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>)facility_id</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2124,77 +2316,142 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>(FK)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>設施編號</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>(PK)</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>村里別代號</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (PK)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>轄管分局代碼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (PK)</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2NF&amp;3NF</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>village_id</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>村里別village_category</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>村里辦公室village_add</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>村里辦公室電話village_tel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>村里表village</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>設施類別表 facility_category</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>類別facility_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTEGER(5000)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTEGER</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大埔里</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>竹南鎮公義路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1035</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>03 758 1072</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹南分局</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣竹南鎮民族街</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>72</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>03 747 4796</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公寓</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2317,15 +2574,16 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Microsoft JhengHei"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2354,7 +2612,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2378,40 +2636,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -2420,7 +2654,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2490,16 +2724,28 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2816,21 +3062,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1A47CA-532C-4318-8D23-1C0A59A513C2}">
-  <dimension ref="A1:L86"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="1" max="1" width="33.75" customWidth="1"/>
     <col min="2" max="2" width="23.375" customWidth="1"/>
     <col min="3" max="3" width="27.875" customWidth="1"/>
     <col min="4" max="4" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.25" customWidth="1"/>
     <col min="6" max="6" width="38.75" customWidth="1"/>
-    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.875" customWidth="1"/>
     <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.875" customWidth="1"/>
     <col min="10" max="10" width="26.125" bestFit="1" customWidth="1"/>
@@ -3236,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>2</v>
@@ -3257,7 +3503,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>8</v>
@@ -3765,7 +4011,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="7" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3773,63 +4019,54 @@
       <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
+      <c r="A34" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>2</v>
+        <v>131</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>93</v>
+        <v>133</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="11" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>14</v>
+        <v>140</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>142</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>16</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3845,9 +4082,6 @@
       <c r="D38" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="12" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="12" t="s">
@@ -3862,9 +4096,6 @@
       <c r="D39" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="12" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="12" t="s">
@@ -3879,9 +4110,6 @@
       <c r="D40" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E40" s="12" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="12" t="s">
@@ -3896,9 +4124,6 @@
       <c r="D41" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E41" s="8" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="12" t="s">
@@ -3913,9 +4138,6 @@
       <c r="D42" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E42" s="12" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="12" t="s">
@@ -3930,9 +4152,6 @@
       <c r="D43" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E43" s="12" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="12" t="s">
@@ -3947,461 +4166,493 @@
       <c r="D44" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E44" s="12" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
+      <c r="A47" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" s="29"/>
+      <c r="C47" s="28"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B48" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="8" t="s">
+      <c r="B52" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="25"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="F58" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="G58" s="20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="12">
+        <v>100</v>
+      </c>
+      <c r="D60" s="12">
+        <v>1</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="15">
+        <v>3142</v>
+      </c>
+      <c r="D61" s="12">
+        <v>1</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="8">
+        <v>1072</v>
+      </c>
+      <c r="D62" s="12">
+        <v>1</v>
+      </c>
+      <c r="E62" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="8">
+        <v>32</v>
+      </c>
+      <c r="D63" s="12">
+        <v>1</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="31.5">
+      <c r="A64" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="8">
+        <v>106</v>
+      </c>
+      <c r="D64" s="8">
+        <v>1</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="47.25">
+      <c r="A65" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B50" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="8" t="s">
+      <c r="B65" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65" s="8">
+        <v>26</v>
+      </c>
+      <c r="D65" s="8">
+        <v>1</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="31.5">
+      <c r="A66" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B51" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="8" t="s">
+      <c r="B66" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66" s="17">
+        <v>2038</v>
+      </c>
+      <c r="D66" s="12">
+        <v>2</v>
+      </c>
+      <c r="E66" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="31.5">
+      <c r="A67" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B52" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="8" t="s">
+      <c r="B67" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" s="17">
+        <v>128</v>
+      </c>
+      <c r="D67" s="12">
+        <v>2</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B53" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C67" s="12">
-        <v>100</v>
-      </c>
-      <c r="D67" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="8" t="s">
-        <v>96</v>
-      </c>
       <c r="B68" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C68" s="15">
-        <v>3142</v>
+        <v>75</v>
+      </c>
+      <c r="C68" s="8">
+        <v>353</v>
       </c>
       <c r="D68" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C69" s="8">
-        <v>1072</v>
+        <v>501</v>
       </c>
       <c r="D69" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C70" s="8">
-        <v>32</v>
+        <v>194</v>
       </c>
       <c r="D70" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="31.5">
+      <c r="E70" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B71" s="16" t="s">
-        <v>79</v>
+        <v>101</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>78</v>
       </c>
       <c r="C71" s="8">
+        <v>78</v>
+      </c>
+      <c r="D71" s="12">
+        <v>1</v>
+      </c>
+      <c r="E71" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B76" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D71" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="47.25">
-      <c r="A72" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B72" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C72" s="8">
-        <v>26</v>
-      </c>
-      <c r="D72" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="31.5">
-      <c r="A73" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B73" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C73" s="17">
-        <v>2038</v>
-      </c>
-      <c r="D73" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="31.5">
-      <c r="A74" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B74" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C74" s="17">
-        <v>128</v>
-      </c>
-      <c r="D74" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C75" s="8">
-        <v>353</v>
-      </c>
-      <c r="D75" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B76" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C76" s="8">
-        <v>501</v>
-      </c>
-      <c r="D76" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="8" t="s">
+      <c r="C76" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D76" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B77" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C77" s="8">
-        <v>194</v>
-      </c>
-      <c r="D77" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B77" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B78" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C78" s="8">
-        <v>78</v>
-      </c>
-      <c r="D78" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B81" s="21"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B83" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B84" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C84" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D84" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="B78" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C85" s="18" t="s">
+      <c r="C78" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D85" s="12" t="s">
+      <c r="D78" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="12" t="s">
+    <row r="79" spans="1:7">
+      <c r="A79" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="B79" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C86" s="12" t="s">
+      <c r="C79" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D86" s="12" t="s">
+      <c r="D79" s="12" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A74:D74"/>
     <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="A47:B47"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SQL/SQL評量_蔣澍儀801.xlsx
+++ b/SQL/SQL評量_蔣澍儀801.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Java班\git_upload\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01ED1C00-52FF-4279-8A6F-65E2297E9377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046DBDF0-3DC7-47D9-B03E-6B9EED0D31A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12165" yWindow="150" windowWidth="16635" windowHeight="12600" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
+    <workbookView xWindow="15375" yWindow="150" windowWidth="13425" windowHeight="14295" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -2654,7 +2654,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2718,34 +2718,28 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3065,7 +3059,7 @@
   <dimension ref="A1:L79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4019,13 +4013,13 @@
       <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="20" t="s">
@@ -4059,7 +4053,7 @@
       <c r="A37" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="22" t="s">
         <v>141</v>
       </c>
       <c r="C37" s="15" t="s">
@@ -4168,11 +4162,11 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="B47" s="29"/>
-      <c r="C47" s="28"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="23"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="20" t="s">
@@ -4194,7 +4188,7 @@
       <c r="A50" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="22" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4202,7 +4196,7 @@
       <c r="A51" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="22" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4223,26 +4217,23 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="25"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="29" t="s">
+      <c r="A57" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="20" t="s">
@@ -4349,7 +4340,7 @@
       <c r="D62" s="12">
         <v>1</v>
       </c>
-      <c r="E62" s="27" t="s">
+      <c r="E62" s="22" t="s">
         <v>115</v>
       </c>
       <c r="F62" s="12" t="s">
@@ -4441,7 +4432,7 @@
       <c r="D66" s="12">
         <v>2</v>
       </c>
-      <c r="E66" s="27" t="s">
+      <c r="E66" s="22" t="s">
         <v>115</v>
       </c>
       <c r="F66" s="12" t="s">
@@ -4510,7 +4501,7 @@
       <c r="D69" s="12">
         <v>1</v>
       </c>
-      <c r="E69" s="24" t="s">
+      <c r="E69" s="21" t="s">
         <v>112</v>
       </c>
       <c r="F69" s="12" t="s">
@@ -4556,7 +4547,7 @@
       <c r="D71" s="12">
         <v>1</v>
       </c>
-      <c r="E71" s="24" t="s">
+      <c r="E71" s="21" t="s">
         <v>112</v>
       </c>
       <c r="F71" s="12" t="s">
@@ -4567,12 +4558,12 @@
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="21" t="s">
+      <c r="A74" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="B74" s="21"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="10" t="s">
@@ -4606,7 +4597,7 @@
       <c r="A77" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="B77" s="27" t="s">
+      <c r="B77" s="22" t="s">
         <v>145</v>
       </c>
       <c r="C77" s="15" t="s">
